--- a/doc/钱塘江观潮时间地点表.xlsx
+++ b/doc/钱塘江观潮时间地点表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="34">
   <si>
     <t>每月农历时间</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>十五</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>十六</t>
@@ -1064,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2553,7 +2559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2566,8 +2572,23 @@
       <c r="D52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="3">
+        <v>0.951388888888889</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0.4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2580,8 +2601,23 @@
       <c r="D53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="3">
+        <v>0.999305555555556</v>
+      </c>
+      <c r="F53">
+        <v>3.9</v>
+      </c>
+      <c r="G53">
+        <v>0.3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -2594,8 +2630,23 @@
       <c r="D54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="3">
+        <v>0.00694444444444444</v>
+      </c>
+      <c r="F54">
+        <v>3.9</v>
+      </c>
+      <c r="G54">
+        <v>0.3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -2608,8 +2659,23 @@
       <c r="D55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="3">
+        <v>0.0201388888888889</v>
+      </c>
+      <c r="F55">
+        <v>3.9</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -2622,8 +2688,23 @@
       <c r="D56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="3">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F56">
+        <v>3.8</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -2636,8 +2717,23 @@
       <c r="D57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="3">
+        <v>0.486111111111111</v>
+      </c>
+      <c r="F57">
+        <v>3.6</v>
+      </c>
+      <c r="G57">
+        <v>0.4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -2650,8 +2746,23 @@
       <c r="D58" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="3">
+        <v>0.540277777777778</v>
+      </c>
+      <c r="F58">
+        <v>3.5</v>
+      </c>
+      <c r="G58">
+        <v>0.3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -2664,8 +2775,23 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="3">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="F59">
+        <v>3.5</v>
+      </c>
+      <c r="G59">
+        <v>0.3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -2678,8 +2804,23 @@
       <c r="D60" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="3">
+        <v>0.564583333333333</v>
+      </c>
+      <c r="F60">
+        <v>3.5</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2692,10 +2833,25 @@
       <c r="D61" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="3">
+        <v>0.590277777777778</v>
+      </c>
+      <c r="F61">
+        <v>3.6</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B62" s="1">
         <v>45523</v>
@@ -2706,10 +2862,25 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="3">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F62">
+        <v>5.1</v>
+      </c>
+      <c r="G62">
+        <v>0.8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B63" s="1">
         <v>45523</v>
@@ -2720,10 +2891,25 @@
       <c r="D63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="3">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="F63">
+        <v>5.1</v>
+      </c>
+      <c r="G63">
+        <v>0.7</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B64" s="1">
         <v>45523</v>
@@ -2734,10 +2920,25 @@
       <c r="D64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="3">
+        <v>0.00694444444444444</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>0.7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B65" s="1">
         <v>45523</v>
@@ -2748,10 +2949,25 @@
       <c r="D65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="3">
+        <v>0.01875</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>0.6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B66" s="1">
         <v>45523</v>
@@ -2762,10 +2978,25 @@
       <c r="D66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="3">
+        <v>0.0381944444444444</v>
+      </c>
+      <c r="F66">
+        <v>4.8</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B67" s="1">
         <v>45523</v>
@@ -2776,10 +3007,25 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="3">
+        <v>0.490972222222222</v>
+      </c>
+      <c r="F67">
+        <v>4.1</v>
+      </c>
+      <c r="G67">
+        <v>0.5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B68" s="1">
         <v>45523</v>
@@ -2790,10 +3036,25 @@
       <c r="D68" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="3">
+        <v>0.552777777777778</v>
+      </c>
+      <c r="F68">
+        <v>4.1</v>
+      </c>
+      <c r="G68">
+        <v>0.4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B69" s="1">
         <v>45523</v>
@@ -2804,10 +3065,25 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="F69">
+        <v>4.2</v>
+      </c>
+      <c r="G69">
+        <v>0.4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1">
         <v>45523</v>
@@ -2818,10 +3094,25 @@
       <c r="D70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="3">
+        <v>0.577777777777778</v>
+      </c>
+      <c r="F70">
+        <v>4.1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B71" s="1">
         <v>45523</v>
@@ -2832,10 +3123,25 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="3">
+        <v>0.601388888888889</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1">
         <v>45524</v>
@@ -2846,10 +3152,25 @@
       <c r="D72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="3">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="F72">
+        <v>5.8</v>
+      </c>
+      <c r="G72">
+        <v>1.2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1">
         <v>45524</v>
@@ -2860,10 +3181,25 @@
       <c r="D73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="3">
+        <v>0.0270833333333333</v>
+      </c>
+      <c r="F73">
+        <v>5.7</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B74" s="1">
         <v>45524</v>
@@ -2874,10 +3210,25 @@
       <c r="D74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="3">
+        <v>0.0347222222222222</v>
+      </c>
+      <c r="F74">
+        <v>5.7</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1">
         <v>45524</v>
@@ -2888,10 +3239,25 @@
       <c r="D75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="3">
+        <v>0.0493055555555556</v>
+      </c>
+      <c r="F75">
+        <v>5.6</v>
+      </c>
+      <c r="G75">
+        <v>0.9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1">
         <v>45524</v>
@@ -2902,10 +3268,25 @@
       <c r="D76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="3">
+        <v>0.0729166666666667</v>
+      </c>
+      <c r="F76">
+        <v>5.5</v>
+      </c>
+      <c r="G76">
+        <v>0.8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1">
         <v>45524</v>
@@ -2916,10 +3297,25 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="3">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="F77">
+        <v>5.2</v>
+      </c>
+      <c r="G77">
+        <v>0.9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B78" s="1">
         <v>45524</v>
@@ -2930,10 +3326,25 @@
       <c r="D78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="3">
+        <v>0.56875</v>
+      </c>
+      <c r="F78">
+        <v>5.1</v>
+      </c>
+      <c r="G78">
+        <v>0.7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1">
         <v>45524</v>
@@ -2944,10 +3355,25 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="3">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>0.7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B80" s="1">
         <v>45524</v>
@@ -2958,10 +3384,25 @@
       <c r="D80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="3">
+        <v>0.589583333333333</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>0.6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B81" s="1">
         <v>45524</v>
@@ -2972,10 +3413,25 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="3">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="F81">
+        <v>4.9</v>
+      </c>
+      <c r="G81">
+        <v>0.5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B82" s="1">
         <v>45525</v>
@@ -2986,10 +3442,13 @@
       <c r="D82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="3">
+        <v>0.00208333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B83" s="1">
         <v>45525</v>
@@ -3000,10 +3459,13 @@
       <c r="D83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="3">
+        <v>0.0597222222222222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1">
         <v>45525</v>
@@ -3014,10 +3476,13 @@
       <c r="D84" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="3">
+        <v>0.0659722222222222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B85" s="1">
         <v>45525</v>
@@ -3028,10 +3493,13 @@
       <c r="D85" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="3">
+        <v>0.0763888888888889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B86" s="1">
         <v>45525</v>
@@ -3042,10 +3510,13 @@
       <c r="D86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="3">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B87" s="1">
         <v>45525</v>
@@ -3056,10 +3527,13 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="3">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B88" s="1">
         <v>45525</v>
@@ -3070,10 +3544,13 @@
       <c r="D88" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="3">
+        <v>0.589583333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B89" s="1">
         <v>45525</v>
@@ -3084,10 +3561,13 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="3">
+        <v>0.597222222222222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B90" s="1">
         <v>45525</v>
@@ -3098,10 +3578,13 @@
       <c r="D90" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="3">
+        <v>0.609027777777778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B91" s="1">
         <v>45525</v>
@@ -3112,10 +3595,13 @@
       <c r="D91" t="s">
         <v>19</v>
       </c>
+      <c r="E91" s="3">
+        <v>0.627083333333333</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B92" s="1">
         <v>45526</v>
@@ -3129,7 +3615,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B93" s="1">
         <v>45526</v>
@@ -3143,7 +3629,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B94" s="1">
         <v>45526</v>
@@ -3157,7 +3643,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B95" s="1">
         <v>45526</v>
@@ -3171,7 +3657,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>45526</v>
@@ -3185,7 +3671,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B97" s="1">
         <v>45526</v>
@@ -3199,7 +3685,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B98" s="1">
         <v>45526</v>
@@ -3213,7 +3699,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B99" s="1">
         <v>45526</v>
@@ -3227,7 +3713,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B100" s="1">
         <v>45526</v>
@@ -3241,7 +3727,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B101" s="1">
         <v>45526</v>
